--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0561075-6F94-0C40-978E-686B2340D520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86906256-F6CB-CB45-99C6-795A2987DE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
   <si>
     <t>Symbol</t>
   </si>
@@ -199,13 +199,25 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>JNPR</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>HWM</t>
+  </si>
+  <si>
+    <t>тут похоже будет спуск с волны 5 к волне А</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="112" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -657,6 +669,55 @@
     <font>
       <sz val="15"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -679,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1014,6 +1075,37 @@
     <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1328,21 +1420,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="4" max="4" width="46" style="122" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,11 +1444,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="121" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1367,7 +1459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1378,7 +1470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1389,7 +1481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1400,7 +1492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="360" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -1411,7 +1503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
@@ -1422,7 +1514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="100" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
@@ -1433,7 +1525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
@@ -1444,7 +1536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>17</v>
       </c>
@@ -1455,7 +1547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="200" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>18</v>
       </c>
@@ -1466,7 +1558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>20</v>
       </c>
@@ -1477,7 +1569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>21</v>
       </c>
@@ -1488,7 +1580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="360" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>22</v>
       </c>
@@ -1499,7 +1591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>23</v>
       </c>
@@ -1510,7 +1602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="220" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>24</v>
       </c>
@@ -1521,7 +1613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>25</v>
       </c>
@@ -1532,7 +1624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="140" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>27</v>
       </c>
@@ -1543,7 +1635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>29</v>
       </c>
@@ -1554,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="100" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>30</v>
       </c>
@@ -1565,7 +1657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
         <v>31</v>
       </c>
@@ -1576,7 +1668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
         <v>32</v>
       </c>
@@ -1587,7 +1679,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="100" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>33</v>
       </c>
@@ -1598,7 +1690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
         <v>34</v>
       </c>
@@ -1609,7 +1701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A25" s="67" t="s">
         <v>35</v>
       </c>
@@ -1620,7 +1712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
         <v>36</v>
       </c>
@@ -1631,7 +1723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="140" x14ac:dyDescent="0.25">
       <c r="A27" s="73" t="s">
         <v>37</v>
       </c>
@@ -1642,7 +1734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
         <v>38</v>
       </c>
@@ -1653,7 +1745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A29" s="79" t="s">
         <v>39</v>
       </c>
@@ -1664,7 +1756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A30" s="82" t="s">
         <v>40</v>
       </c>
@@ -1675,7 +1767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="140" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
         <v>41</v>
       </c>
@@ -1686,7 +1778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="360" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="88" t="s">
         <v>42</v>
       </c>
@@ -1697,7 +1789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="80" x14ac:dyDescent="0.25">
       <c r="A33" s="91" t="s">
         <v>43</v>
       </c>
@@ -1708,7 +1800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="s">
         <v>45</v>
       </c>
@@ -1719,7 +1811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="96" t="s">
         <v>46</v>
       </c>
@@ -1730,7 +1822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="98" t="s">
         <v>47</v>
       </c>
@@ -1741,7 +1833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="100" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="100" x14ac:dyDescent="0.25">
       <c r="A37" s="100" t="s">
         <v>48</v>
       </c>
@@ -1752,7 +1844,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A38" s="102" t="s">
         <v>49</v>
       </c>
@@ -1763,7 +1855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="100" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="100" x14ac:dyDescent="0.25">
       <c r="A39" s="105" t="s">
         <v>50</v>
       </c>
@@ -1774,7 +1866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A40" s="107" t="s">
         <v>51</v>
       </c>
@@ -1785,7 +1877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="100" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="100" x14ac:dyDescent="0.25">
       <c r="A41" s="110" t="s">
         <v>52</v>
       </c>
@@ -1794,6 +1886,42 @@
       </c>
       <c r="C41" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A43" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A44" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="120" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86906256-F6CB-CB45-99C6-795A2987DE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E1679-F97D-F04B-BF30-916CD338401B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
   <si>
     <t>Symbol</t>
   </si>
@@ -211,13 +211,16 @@
   </si>
   <si>
     <t>тут похоже будет спуск с волны 5 к волне А</t>
+  </si>
+  <si>
+    <t>глюк</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="122" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -228,10 +231,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -740,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1100,12 +1099,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1427,7 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" style="122" customWidth="1"/>
+    <col min="4" max="4" width="46" style="121" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -1444,7 +1440,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="120" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1554,48 +1550,48 @@
       <c r="B11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>6</v>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1603,76 +1599,76 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="51" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="59" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1680,120 +1676,120 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="62" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="65" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="71" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="74" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="77" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="80" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="83" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A31" s="85" t="s">
+      <c r="A31" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="86" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="89" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1801,21 +1797,21 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="95" t="s">
+      <c r="C34" s="94" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="96" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1823,10 +1819,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="98" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1834,10 +1830,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="100" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1845,21 +1841,21 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="103" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1867,21 +1863,21 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A40" s="107" t="s">
+      <c r="A40" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="109" t="s">
+      <c r="C40" s="108" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="110" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1889,38 +1885,38 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="112" t="s">
+      <c r="A42" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="114" t="s">
+      <c r="C42" s="113" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A43" s="115" t="s">
+      <c r="A43" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="117" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="122" t="s">
+      <c r="C43" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="121" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="119" t="s">
+      <c r="B44" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="120" t="s">
+      <c r="C44" s="119" t="s">
         <v>6</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E1679-F97D-F04B-BF30-916CD338401B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE49ED6-D18C-B54A-A9DF-EF2B19481E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="61">
   <si>
     <t>Symbol</t>
   </si>
@@ -214,13 +214,16 @@
   </si>
   <si>
     <t>глюк</t>
+  </si>
+  <si>
+    <t>TP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="122" x14ac:knownFonts="1">
+  <fonts count="119" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -231,18 +234,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -739,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1090,23 +1081,25 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1418,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1420,7 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" style="121" customWidth="1"/>
+    <col min="4" max="4" width="46" style="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -1440,7 +1433,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="117" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1495,37 +1488,37 @@
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>6</v>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1533,21 +1526,21 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1555,43 +1548,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1599,76 +1592,76 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1676,120 +1669,120 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="61" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="67" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="73" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="76" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="79" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="82" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="85" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="C32" s="88" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="90" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1797,21 +1790,21 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="94" t="s">
-        <v>6</v>
+      <c r="C34" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B35" s="94" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1819,10 +1812,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="96" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1830,10 +1823,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A37" s="99" t="s">
+      <c r="A37" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="100" t="s">
+      <c r="B37" s="98" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1841,21 +1834,21 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="103" t="s">
-        <v>6</v>
+      <c r="C38" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="102" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1863,21 +1856,21 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="105" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="107" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1885,42 +1878,47 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="C42" s="110" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A43" s="114" t="s">
+      <c r="A43" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="121" t="s">
+      <c r="C43" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="118" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="119" t="s">
+      <c r="C44" s="116" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TP">
+      <formula>NOT(ISERROR(SEARCH("TP",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE49ED6-D18C-B54A-A9DF-EF2B19481E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D94713-4030-574E-AA21-5EF1DEE2D4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="75">
   <si>
     <t>Symbol</t>
   </si>
@@ -217,13 +217,58 @@
   </si>
   <si>
     <t>TP</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>PRA</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>OMC</t>
+  </si>
+  <si>
+    <t>RLI</t>
+  </si>
+  <si>
+    <t>HLLY</t>
+  </si>
+  <si>
+    <t>EOLS</t>
+  </si>
+  <si>
+    <t>UNVR</t>
+  </si>
+  <si>
+    <t>IRWD</t>
+  </si>
+  <si>
+    <t>ThreeDisplays_Buy_9
+Поиск плавного волнообразного подъема из перепроданности. Очень редкий сигнал, но крайне мало SL
+ThreeDisplays_Buy_Bollinger_1_2
+Цена недавно касалась нижней ленты, долгосрочный тренд вверх</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>ENSG</t>
+  </si>
+  <si>
+    <t>KEX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="119" x14ac:knownFonts="1">
+  <fonts count="156" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -708,6 +753,154 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -730,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1084,6 +1277,117 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1913,6 +2217,149 @@
         <v>6</v>
       </c>
     </row>
+    <row r="45" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A45" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="100" x14ac:dyDescent="0.25">
+      <c r="A46" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="100" x14ac:dyDescent="0.25">
+      <c r="A47" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A51" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A52" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="160" x14ac:dyDescent="0.25">
+      <c r="A53" s="142" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A54" s="145" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="147" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="160" x14ac:dyDescent="0.25">
+      <c r="A56" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="151" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="154" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="155" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TP">

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D94713-4030-574E-AA21-5EF1DEE2D4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A58CF5-D841-4F4F-BB64-9367C9940ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Positions" sheetId="1" r:id="rId1"/>
+    <sheet name="Daily" sheetId="1" r:id="rId1"/>
+    <sheet name="Weekly" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
   <si>
     <t>Symbol</t>
   </si>
@@ -1392,7 +1393,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1715,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2362,11 +2373,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TP">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TP">
       <formula>NOT(ISERROR(SEARCH("TP",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE19E7BC-C1EC-9C40-8D70-D7A6EDC0C10C}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TP">
+      <formula>NOT(ISERROR(SEARCH("TP",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A58CF5-D841-4F4F-BB64-9367C9940ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A0D52C-01B7-B54F-8802-4D87A09C7123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="76">
   <si>
     <t>Symbol</t>
   </si>
@@ -263,13 +263,16 @@
   </si>
   <si>
     <t>KEX</t>
+  </si>
+  <si>
+    <t>SL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="156" x14ac:knownFonts="1">
+  <fonts count="142" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -691,58 +694,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
@@ -754,10 +705,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="15"/>
@@ -924,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1236,11 +1183,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1275,9 +1220,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1345,55 +1292,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1726,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1660,7 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" style="118" customWidth="1"/>
+    <col min="4" max="4" width="46" style="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -1748,7 +1673,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="104" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1781,26 +1706,26 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>6</v>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1808,32 +1733,32 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>6</v>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1841,21 +1766,21 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>6</v>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1863,43 +1788,43 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>6</v>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1907,76 +1832,76 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>6</v>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>6</v>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="50" t="s">
-        <v>6</v>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="56" t="s">
-        <v>6</v>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="49" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1984,120 +1909,120 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="61" t="s">
-        <v>6</v>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="76" t="s">
-        <v>6</v>
+      <c r="C28" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="71" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="74" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="88" t="s">
-        <v>6</v>
+      <c r="C32" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="78" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2105,10 +2030,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2116,10 +2041,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="82" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2127,10 +2052,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="84" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2138,10 +2063,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="86" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2149,10 +2074,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2160,10 +2085,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="90" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2171,21 +2096,21 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="105" t="s">
-        <v>6</v>
+      <c r="C40" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A41" s="106" t="s">
+      <c r="A41" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="94" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2193,112 +2118,112 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="97" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A43" s="111" t="s">
+      <c r="A43" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="112" t="s">
+      <c r="B43" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="118" t="s">
+      <c r="C43" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="105" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A44" s="114" t="s">
+      <c r="A44" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="116" t="s">
+      <c r="C44" s="103" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A45" s="119" t="s">
+      <c r="A45" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="120" t="s">
+      <c r="B45" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="121" t="s">
+      <c r="C45" s="108" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A46" s="122" t="s">
+      <c r="A46" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="124" t="s">
+      <c r="C46" s="111" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A47" s="125" t="s">
+      <c r="A47" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="126" t="s">
+      <c r="B47" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="127" t="s">
+      <c r="C47" s="114" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="128" t="s">
+      <c r="A48" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="129" t="s">
+      <c r="B48" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="130" t="s">
+      <c r="C48" s="117" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="131" t="s">
+      <c r="A49" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="132" t="s">
+      <c r="B49" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="133" t="s">
+      <c r="C49" s="120" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="135" t="s">
+      <c r="B50" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="136" t="s">
+      <c r="C50" s="123" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A51" s="137" t="s">
+      <c r="A51" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="138" t="s">
+      <c r="B51" s="125" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2306,32 +2231,32 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A52" s="139" t="s">
+      <c r="A52" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="140" t="s">
+      <c r="B52" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="141" t="s">
+      <c r="C52" s="128" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A53" s="142" t="s">
+      <c r="A53" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="143" t="s">
+      <c r="B53" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="144" t="s">
-        <v>6</v>
+      <c r="C53" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A54" s="145" t="s">
+      <c r="A54" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="146" t="s">
+      <c r="B54" s="132" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2339,42 +2264,45 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="147" t="s">
+      <c r="A55" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="148" t="s">
+      <c r="B55" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="149" t="s">
+      <c r="C55" s="135" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A56" s="150" t="s">
+      <c r="A56" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="151" t="s">
+      <c r="B56" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="152" t="s">
+      <c r="C56" s="138" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="153" t="s">
+      <c r="A57" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="154" t="s">
+      <c r="B57" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="155" t="s">
+      <c r="C57" s="141" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TP">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="TP">
       <formula>NOT(ISERROR(SEARCH("TP",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="SL">
+      <formula>NOT(ISERROR(SEARCH("SL",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2397,7 +2325,7 @@
     <col min="4" max="4" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2407,13 +2335,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="104" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TP">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="TP">
       <formula>NOT(ISERROR(SEARCH("TP",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A0D52C-01B7-B54F-8802-4D87A09C7123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AFB239-0BBE-904C-8E1B-1CB5D8165BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="142" x14ac:knownFonts="1">
+  <fonts count="144" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -849,6 +849,19 @@
     <font>
       <sz val="15"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -871,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1294,11 +1307,15 @@
     <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1316,16 +1333,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1651,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2314,34 +2321,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE19E7BC-C1EC-9C40-8D70-D7A6EDC0C10C}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="41.5" customWidth="1"/>
+    <col min="1" max="2" width="19.1640625" style="143" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="143" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="142" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="TP">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TP">
       <formula>NOT(ISERROR(SEARCH("TP",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AFB239-0BBE-904C-8E1B-1CB5D8165BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EE6F35-B03F-364A-AD08-FD33E19828BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="144" x14ac:knownFonts="1">
+  <fonts count="143" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -283,10 +283,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -884,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1193,12 +1189,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1305,12 +1301,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1658,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1660,7 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" style="105" customWidth="1"/>
+    <col min="4" max="4" width="46" style="104" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -1680,7 +1673,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="103" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1889,15 +1882,15 @@
       <c r="B20" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>6</v>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1905,10 +1898,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1916,10 +1909,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="50" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1927,54 +1920,54 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="59" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1982,43 +1975,43 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="67" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="73" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="75" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2026,10 +2019,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="77" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2037,10 +2030,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="79" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2048,10 +2041,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="81" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2059,10 +2052,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="83" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2070,10 +2063,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="85" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2081,10 +2074,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="87" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2092,10 +2085,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2103,10 +2096,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="91" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2114,10 +2107,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2125,112 +2118,112 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="C42" s="96" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="99" t="s">
+      <c r="B43" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="105" t="s">
+      <c r="C43" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="104" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="102" t="s">
+      <c r="B44" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="102" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="108" t="s">
+      <c r="C45" s="107" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A46" s="109" t="s">
+      <c r="A46" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="110" t="s">
+      <c r="B46" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="111" t="s">
+      <c r="C46" s="110" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A47" s="112" t="s">
+      <c r="A47" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="113" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="115" t="s">
+      <c r="A48" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="117" t="s">
+      <c r="C48" s="116" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="118" t="s">
+      <c r="A49" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="119" t="s">
+      <c r="B49" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="120" t="s">
+      <c r="C49" s="119" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="121" t="s">
+      <c r="A50" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="122" t="s">
+      <c r="B50" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="123" t="s">
+      <c r="C50" s="122" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A51" s="124" t="s">
+      <c r="A51" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="125" t="s">
+      <c r="B51" s="124" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2238,21 +2231,21 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A52" s="126" t="s">
+      <c r="A52" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="127" t="s">
+      <c r="B52" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="128" t="s">
+      <c r="C52" s="127" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A53" s="129" t="s">
+      <c r="A53" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="129" t="s">
         <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2260,10 +2253,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A54" s="131" t="s">
+      <c r="A54" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="132" t="s">
+      <c r="B54" s="131" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2271,35 +2264,35 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="133" t="s">
+      <c r="A55" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="134" t="s">
+      <c r="B55" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="135" t="s">
+      <c r="C55" s="134" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A56" s="136" t="s">
+      <c r="A56" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="137" t="s">
+      <c r="B56" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="138" t="s">
+      <c r="C56" s="137" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="139" t="s">
+      <c r="A57" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="140" t="s">
+      <c r="B57" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="141" t="s">
+      <c r="C57" s="140" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2321,28 +2314,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE19E7BC-C1EC-9C40-8D70-D7A6EDC0C10C}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.1640625" style="143" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="143" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="143" customWidth="1"/>
+    <col min="1" max="2" width="19.1640625" style="142" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="142" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="142" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="141" t="s">
         <v>3</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EE6F35-B03F-364A-AD08-FD33E19828BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC83460-7689-C94F-8996-8F30CF3FFEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="84">
   <si>
     <t>Symbol</t>
   </si>
@@ -266,13 +266,38 @@
   </si>
   <si>
     <t>SL</t>
+  </si>
+  <si>
+    <t>ENPH</t>
+  </si>
+  <si>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>UDR</t>
+  </si>
+  <si>
+    <t>TDG</t>
+  </si>
+  <si>
+    <t>UNP</t>
+  </si>
+  <si>
+    <t>GWW</t>
+  </si>
+  <si>
+    <t>ThreeDisplays_Buy_9
+Поиск плавного волнообразного подъема из перепроданности. Очень редкий сигнал, но крайне мало SL</t>
+  </si>
+  <si>
+    <t>AVB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="143" x14ac:knownFonts="1">
+  <fonts count="163" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -858,6 +883,86 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -880,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1304,6 +1409,66 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1649,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2293,6 +2458,83 @@
         <v>26</v>
       </c>
       <c r="C57" s="140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A58" s="143" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A59" s="145" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A60" s="148" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A61" s="151" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="80" x14ac:dyDescent="0.25">
+      <c r="A63" s="157" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="158" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A64" s="160" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="162" t="s">
         <v>6</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
@@ -297,6 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="163" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1822,10 +1823,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" style="104" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5"/>
+    <col min="2" max="2" customWidth="true" width="54.6640625"/>
+    <col min="3" max="3" customWidth="true" width="28.5"/>
+    <col min="4" max="4" customWidth="true" style="104" width="46.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -2562,9 +2563,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.1640625" style="142" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="142" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="142" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" style="142" width="19.1640625"/>
+    <col min="3" max="3" customWidth="true" style="142" width="25.5"/>
+    <col min="4" max="4" customWidth="true" style="142" width="41.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC83460-7689-C94F-8996-8F30CF3FFEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A81E0A0-3BF2-DE41-ADA0-91CE20BAEEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,7 +297,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="163" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1817,16 +1816,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5"/>
-    <col min="2" max="2" customWidth="true" width="54.6640625"/>
-    <col min="3" max="3" customWidth="true" width="28.5"/>
-    <col min="4" max="4" customWidth="true" style="104" width="46.0"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="46" style="104" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -2563,9 +2562,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="142" width="19.1640625"/>
-    <col min="3" max="3" customWidth="true" style="142" width="25.5"/>
-    <col min="4" max="4" customWidth="true" style="142" width="41.5"/>
+    <col min="1" max="2" width="19.1640625" style="142" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="142" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="142" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A81E0A0-3BF2-DE41-ADA0-91CE20BAEEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45ABF23-FA2E-A045-9774-2833F183EEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
   <si>
     <t>Symbol</t>
   </si>
@@ -297,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="163" x14ac:knownFonts="1">
+  <fonts count="166" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -883,6 +883,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="15"/>
@@ -985,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1467,6 +1479,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1816,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -2554,15 +2575,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE19E7BC-C1EC-9C40-8D70-D7A6EDC0C10C}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.1640625" style="142" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="142" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="142" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="142" customWidth="1"/>
     <col min="4" max="4" width="41.5" style="142" customWidth="1"/>
   </cols>
@@ -2579,6 +2601,17 @@
       </c>
       <c r="D1" s="141" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.25">
+      <c r="A2" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="164" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="165" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45ABF23-FA2E-A045-9774-2833F183EEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575DCE1B-1A17-F94E-86BF-BF843DA6864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="166" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -711,10 +711,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
@@ -860,18 +856,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
@@ -883,10 +867,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="15"/>
@@ -997,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1303,12 +1283,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1406,11 +1386,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1418,9 +1396,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1473,21 +1453,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1837,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1846,7 +1811,7 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" style="104" customWidth="1"/>
+    <col min="4" max="4" width="46" style="103" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -1859,7 +1824,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="102" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2324,7 +2289,7 @@
       <c r="C43" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="104" t="s">
+      <c r="D43" s="103" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2335,81 +2300,81 @@
       <c r="B44" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="102" t="s">
-        <v>6</v>
+      <c r="C44" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A45" s="105" t="s">
+      <c r="A45" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="107" t="s">
+      <c r="B45" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="106" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="109" t="s">
+      <c r="B46" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="110" t="s">
+      <c r="C46" s="109" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A47" s="111" t="s">
+      <c r="A47" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="112" t="s">
+      <c r="B47" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="113" t="s">
+      <c r="C47" s="112" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="114" t="s">
+      <c r="A48" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="116" t="s">
-        <v>6</v>
+      <c r="C48" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="119" t="s">
-        <v>6</v>
+      <c r="C49" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="120" t="s">
+      <c r="A50" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="121" t="s">
+      <c r="B50" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="122" t="s">
-        <v>6</v>
+      <c r="C50" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A51" s="123" t="s">
+      <c r="A51" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="124" t="s">
+      <c r="B51" s="120" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2417,21 +2382,21 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A52" s="125" t="s">
+      <c r="A52" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="126" t="s">
+      <c r="B52" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="123" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A53" s="128" t="s">
+      <c r="A53" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="129" t="s">
+      <c r="B53" s="125" t="s">
         <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2439,10 +2404,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A54" s="130" t="s">
+      <c r="A54" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="127" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2450,43 +2415,43 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="132" t="s">
+      <c r="A55" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="133" t="s">
+      <c r="B55" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="134" t="s">
+      <c r="C55" s="130" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A56" s="135" t="s">
+      <c r="A56" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="136" t="s">
+      <c r="B56" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="137" t="s">
+      <c r="C56" s="133" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="138" t="s">
+      <c r="A57" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="139" t="s">
+      <c r="B57" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="140" t="s">
+      <c r="C57" s="136" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A58" s="143" t="s">
+      <c r="A58" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="144" t="s">
+      <c r="B58" s="140" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2494,69 +2459,69 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A59" s="145" t="s">
+      <c r="A59" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="147" t="s">
+      <c r="B59" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="143" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A60" s="148" t="s">
+      <c r="A60" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="150" t="s">
+      <c r="B60" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="146" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A61" s="151" t="s">
+      <c r="A61" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="153" t="s">
+      <c r="B61" s="148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="149" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="154" t="s">
+      <c r="A62" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="155" t="s">
+      <c r="B62" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="156" t="s">
+      <c r="C62" s="152" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="80" x14ac:dyDescent="0.25">
-      <c r="A63" s="157" t="s">
+      <c r="A63" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="158" t="s">
+      <c r="B63" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="159" t="s">
+      <c r="C63" s="155" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A64" s="160" t="s">
+      <c r="A64" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="162" t="s">
-        <v>6</v>
+      <c r="B64" s="157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2577,40 +2542,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE19E7BC-C1EC-9C40-8D70-D7A6EDC0C10C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="142" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" style="142" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="142" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="142" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="138" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="138" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="138" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="138" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="C1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="137" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="160" t="s">
         <v>6</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575DCE1B-1A17-F94E-86BF-BF843DA6864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF226B5F-052C-9744-830A-5A747B1442A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
   <si>
     <t>Symbol</t>
   </si>
@@ -291,13 +291,25 @@
   </si>
   <si>
     <t>AVB</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>VTR</t>
+  </si>
+  <si>
+    <t>PGR</t>
+  </si>
+  <si>
+    <t>BRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="172" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -867,6 +879,50 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="15"/>
@@ -977,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1453,6 +1509,39 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1800,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2522,6 +2611,50 @@
       </c>
       <c r="C64" s="2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A65" s="161" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A66" s="164" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="160" x14ac:dyDescent="0.25">
+      <c r="A67" s="166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="167" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A68" s="169" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="171" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF226B5F-052C-9744-830A-5A747B1442A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9205505B-E82C-B549-8102-790988F9B9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -1891,7 +1891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
@@ -2675,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE19E7BC-C1EC-9C40-8D70-D7A6EDC0C10C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9205505B-E82C-B549-8102-790988F9B9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327F0364-2675-104F-87E9-4C7C51B22DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
   <si>
     <t>Symbol</t>
   </si>
@@ -211,9 +211,6 @@
     <t>HWM</t>
   </si>
   <si>
-    <t>тут похоже будет спуск с волны 5 к волне А</t>
-  </si>
-  <si>
     <t>глюк</t>
   </si>
   <si>
@@ -303,13 +300,19 @@
   </si>
   <si>
     <t>BRO</t>
+  </si>
+  <si>
+    <t>на недельном графике цена была сильно выше ЕМА26</t>
+  </si>
+  <si>
+    <t>тут похоже будет спуск с волны 5 к волне А. Стоплосс нужно было ставить у ЕМА26?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="172" x14ac:knownFonts="1">
+  <fonts count="168" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -715,14 +718,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
@@ -864,10 +859,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
@@ -879,10 +870,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="15"/>
@@ -1033,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1333,216 +1320,206 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1891,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1900,7 +1877,7 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" style="103" customWidth="1"/>
+    <col min="4" max="4" width="46" style="167" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -1913,7 +1890,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="100" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1947,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40" x14ac:dyDescent="0.25">
@@ -1958,7 +1935,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -1969,7 +1946,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40" x14ac:dyDescent="0.25">
@@ -1991,7 +1968,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2013,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2024,7 +2001,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40" x14ac:dyDescent="0.25">
@@ -2046,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -2056,15 +2033,15 @@
       <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>6</v>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2072,76 +2049,76 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2149,120 +2126,120 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="53" t="s">
+      <c r="B24" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="56" t="s">
+      <c r="B25" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="55" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="61" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="63" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="67" t="s">
+      <c r="B29" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="70" t="s">
+      <c r="B30" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="72" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="74" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="76" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2270,21 +2247,21 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2292,10 +2269,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="82" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2303,10 +2280,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="84" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2314,21 +2291,21 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="88" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2336,21 +2313,21 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A41" s="92" t="s">
+      <c r="A41" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="92" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2358,112 +2335,115 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="95" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="99" t="s">
+      <c r="B43" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="167" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A44" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A45" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="103" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A44" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="101" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A45" s="104" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="100" x14ac:dyDescent="0.25">
+      <c r="A46" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="106" t="s">
+      <c r="B46" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="106" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A46" s="107" t="s">
+    <row r="47" spans="1:4" ht="100" x14ac:dyDescent="0.25">
+      <c r="A47" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="108" t="s">
+      <c r="B47" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="109" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A47" s="110" t="s">
+      <c r="C47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="167" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="112" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="113" t="s">
+      <c r="B48" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="114" t="s">
+      <c r="B49" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="115" t="s">
+      <c r="C49" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="117" t="s">
+      <c r="B50" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A51" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A51" s="119" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="116" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2471,32 +2451,32 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A52" s="121" t="s">
+      <c r="A52" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="160" x14ac:dyDescent="0.25">
+      <c r="A53" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="123" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A53" s="124" t="s">
+      <c r="B53" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="125" t="s">
+      <c r="C53" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A54" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A54" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="127" t="s">
+      <c r="B54" s="123" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2504,43 +2484,43 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="128" t="s">
+      <c r="A55" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="160" x14ac:dyDescent="0.25">
+      <c r="A56" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="129" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="130" t="s">
+      <c r="B56" s="128" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="129" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A56" s="131" t="s">
+    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="132" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="133" t="s">
+      <c r="B57" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="132" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="134" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="135" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="136" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="58" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A58" s="139" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="140" t="s">
+      <c r="A58" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="136" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2548,87 +2528,87 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A59" s="141" t="s">
+      <c r="A59" s="137" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A60" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="143" t="s">
+      <c r="B60" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A61" s="142" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="144" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A60" s="144" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="146" t="s">
+    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="145" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="147" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A61" s="147" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="149" t="s">
+    <row r="63" spans="1:3" ht="80" x14ac:dyDescent="0.25">
+      <c r="A63" s="148" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="149" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="150" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="150" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="151" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="152" t="s">
+    <row r="64" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A64" s="151" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A65" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="158" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="80" x14ac:dyDescent="0.25">
-      <c r="A63" s="153" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="154" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="155" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A64" s="156" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" s="157" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A65" s="161" t="s">
+    <row r="66" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A66" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="162" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="163" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A66" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="165" t="s">
+      <c r="B66" s="160" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2636,24 +2616,24 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A67" s="166" t="s">
+      <c r="A67" s="161" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="162" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+      <c r="A68" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="167" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="168" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A68" s="169" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="171" t="s">
+      <c r="B68" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="166" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2675,40 +2655,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE19E7BC-C1EC-9C40-8D70-D7A6EDC0C10C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="138" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" style="138" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="138" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="138" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="134" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="134" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="134" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="134" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="133" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="159" t="s">
+      <c r="A2" s="153" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="155" t="s">
         <v>6</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327F0364-2675-104F-87E9-4C7C51B22DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A29064-2F81-6941-89AA-5145178DD330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="168" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -870,6 +870,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="15"/>
@@ -1020,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1520,6 +1532,15 @@
     </xf>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1866,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2636,6 +2657,11 @@
       <c r="C68" s="166" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="168"/>
+      <c r="B69" s="169"/>
+      <c r="C69" s="170"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A29064-2F81-6941-89AA-5145178DD330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C019171-9018-A345-AD23-F50B83B00770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="97">
   <si>
     <t>Symbol</t>
   </si>
@@ -306,13 +306,37 @@
   </si>
   <si>
     <t>тут похоже будет спуск с волны 5 к волне А. Стоплосс нужно было ставить у ЕМА26?</t>
+  </si>
+  <si>
+    <t>долгосрочный тренд начал спуск, не стоило открывать длинную позицию</t>
+  </si>
+  <si>
+    <t>гисограмма MACD начала спуск. Если бы стоплосс был на уровне ЕМА26, то не сработал бы</t>
+  </si>
+  <si>
+    <t>слишком близко стоплосс</t>
+  </si>
+  <si>
+    <t>прошлые три гистограммы MACD снижались, но стоплосс на уровне ЕМА26 не закрылся бы в данный момент</t>
+  </si>
+  <si>
+    <t>прошлые три гистограммы MACD снижались и долгосрочный тренд уже начал наклоняться вниз, не стоило открывать длинную позицию</t>
+  </si>
+  <si>
+    <t>последние три гистограммы снижались и долгосрочный тренд близок к плоскому</t>
+  </si>
+  <si>
+    <t>цена высоковато от ЕМА26</t>
+  </si>
+  <si>
+    <t>долгосрочный тренд пошел вниз</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -706,18 +730,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
@@ -855,10 +867,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
@@ -870,30 +878,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="15"/>
@@ -1032,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1323,183 +1307,186 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1507,39 +1494,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1889,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1852,7 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" style="167" customWidth="1"/>
+    <col min="4" max="4" width="46" style="157" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -1911,26 +1865,29 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="97" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="157" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1938,10 +1895,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1949,10 +1906,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1960,10 +1917,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1971,21 +1928,21 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1993,10 +1950,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2004,10 +1961,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2015,32 +1972,35 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>6</v>
+      <c r="B12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="157" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2048,10 +2008,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2059,10 +2019,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2070,186 +2030,189 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:4" ht="140" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:4" ht="100" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:4" ht="100" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="52" t="s">
+      <c r="B24" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+    <row r="25" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="55" t="s">
+      <c r="B25" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+    <row r="27" spans="1:4" ht="140" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="59" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+    <row r="28" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A28" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="61" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+    <row r="29" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="66" t="s">
+      <c r="B29" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A30" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="69" t="s">
+      <c r="B30" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A31" s="70" t="s">
+    <row r="31" spans="1:4" ht="140" x14ac:dyDescent="0.25">
+      <c r="A31" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="73" t="s">
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="157" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="71" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2257,10 +2220,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="73" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2268,10 +2231,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="75" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2279,10 +2242,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="77" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2290,10 +2253,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="79" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2301,10 +2264,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="81" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2312,10 +2275,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A38" s="85" t="s">
+      <c r="A38" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="83" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2323,10 +2286,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="85" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2334,10 +2297,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="87" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2345,10 +2308,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="89" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2356,35 +2319,35 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="95" t="s">
+      <c r="C42" s="92" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="97" t="s">
+      <c r="B43" s="94" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="167" t="s">
+      <c r="D43" s="157" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="99" t="s">
+      <c r="B44" s="96" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2392,276 +2355,294 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="103" t="s">
+      <c r="B45" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="100" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="106" t="s">
+      <c r="C46" s="103" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A47" s="107" t="s">
+      <c r="A47" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="108" t="s">
+      <c r="B47" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="167" t="s">
+      <c r="D47" s="157" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="109" t="s">
+      <c r="A48" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="107" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="111" t="s">
+    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="109" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="113" t="s">
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="114" t="s">
+      <c r="B50" s="111" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A51" s="115" t="s">
+    <row r="51" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A51" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="116" t="s">
+      <c r="B51" s="113" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A52" s="117" t="s">
+    <row r="52" spans="1:4" ht="100" x14ac:dyDescent="0.25">
+      <c r="A52" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="118" t="s">
+      <c r="B52" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="119" t="s">
+      <c r="C52" s="116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+    <row r="53" spans="1:4" ht="160" x14ac:dyDescent="0.25">
+      <c r="A53" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="121" t="s">
+      <c r="B53" s="118" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A54" s="122" t="s">
+    <row r="54" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A54" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="123" t="s">
+      <c r="B54" s="120" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="124" t="s">
+    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="125" t="s">
+      <c r="B55" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="126" t="s">
+      <c r="C55" s="123" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A56" s="127" t="s">
+    <row r="56" spans="1:4" ht="160" x14ac:dyDescent="0.25">
+      <c r="A56" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="128" t="s">
+      <c r="B56" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="129" t="s">
+      <c r="C56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="157" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="128" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="130" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="132" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A58" s="135" t="s">
+    <row r="58" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A58" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="136" t="s">
+      <c r="B58" s="132" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A59" s="137" t="s">
+    <row r="59" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A59" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="139" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A60" s="140" t="s">
+      <c r="B59" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="157" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A60" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="141" t="s">
+      <c r="B60" s="136" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A61" s="142" t="s">
+    <row r="61" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A61" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="144" t="s">
+      <c r="B61" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="139" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="145" t="s">
+    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="146" t="s">
+      <c r="B62" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="147" t="s">
+      <c r="C62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="157" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="80" x14ac:dyDescent="0.25">
+      <c r="A63" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="143" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="144" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="80" x14ac:dyDescent="0.25">
-      <c r="A63" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="149" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="150" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A64" s="151" t="s">
+    <row r="64" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A64" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="152" t="s">
+      <c r="B64" s="146" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A65" s="156" t="s">
+    <row r="65" spans="1:4" ht="100" x14ac:dyDescent="0.25">
+      <c r="A65" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="157" t="s">
+      <c r="B65" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="158" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="100" x14ac:dyDescent="0.25">
-      <c r="A66" s="159" t="s">
+      <c r="C65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="157" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="100" x14ac:dyDescent="0.25">
+      <c r="A66" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="160" t="s">
+      <c r="B66" s="152" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="160" x14ac:dyDescent="0.25">
-      <c r="A67" s="161" t="s">
+    <row r="67" spans="1:4" ht="160" x14ac:dyDescent="0.25">
+      <c r="A67" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="162" t="s">
+      <c r="B67" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="163" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="40" x14ac:dyDescent="0.25">
-      <c r="A68" s="164" t="s">
+      <c r="C67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="157" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A68" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="166" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="168"/>
-      <c r="B69" s="169"/>
-      <c r="C69" s="170"/>
+      <c r="B68" s="156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="157" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="158"/>
+      <c r="B69" s="159"/>
+      <c r="C69" s="160"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
@@ -2682,40 +2663,43 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="134" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" style="134" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="134" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="134" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="130" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="130" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="130" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="130" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="129" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="155" t="s">
-        <v>6</v>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="130" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C019171-9018-A345-AD23-F50B83B00770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBEC58A-2BFB-4C42-AA19-D8F28EDD2AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
   <si>
     <t>Symbol</t>
   </si>
@@ -330,13 +330,19 @@
   </si>
   <si>
     <t>долгосрочный тренд пошел вниз</t>
+  </si>
+  <si>
+    <t>долгосрочный тренд почти плоский, лучше не вступать в игру</t>
+  </si>
+  <si>
+    <t>высоковато от ЕМА26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -722,14 +728,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
@@ -859,14 +857,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
@@ -878,14 +868,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="15"/>
@@ -1016,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1301,171 +1283,174 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1473,27 +1458,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1843,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1852,7 +1816,7 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" style="157" customWidth="1"/>
+    <col min="4" max="4" width="46" style="151" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -1865,7 +1829,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1879,7 +1843,7 @@
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="157" t="s">
+      <c r="D2" s="151" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1992,7 +1956,7 @@
       <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="157" t="s">
+      <c r="D12" s="151" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2146,26 +2110,26 @@
       <c r="B26" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="140" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="58" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="140" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="28" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2173,46 +2137,49 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="64" t="s">
+      <c r="B29" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="151" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="31" spans="1:4" ht="140" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="67" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="157" t="s">
+      <c r="D31" s="151" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="69" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2220,10 +2187,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2231,10 +2198,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="73" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2242,10 +2209,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="75" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2253,10 +2220,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="77" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2264,10 +2231,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="79" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2275,10 +2242,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="81" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2286,10 +2253,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="83" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2297,10 +2264,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="85" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2308,10 +2275,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="87" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2319,35 +2286,35 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="92" t="s">
+      <c r="C42" s="90" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="92" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="157" t="s">
+      <c r="D43" s="151" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="94" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2355,46 +2322,49 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="100" t="s">
+      <c r="B45" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="98" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="102" t="s">
+      <c r="B46" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="103" t="s">
-        <v>6</v>
+      <c r="C46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="151" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A47" s="104" t="s">
+      <c r="A47" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="102" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="157" t="s">
+      <c r="D47" s="151" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="104" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2402,10 +2372,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="109" t="s">
+      <c r="B49" s="106" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2413,10 +2383,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="108" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2424,10 +2394,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A51" s="112" t="s">
+      <c r="A51" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="113" t="s">
+      <c r="B51" s="110" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2435,21 +2405,21 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A52" s="114" t="s">
+      <c r="A52" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="115" t="s">
+      <c r="B52" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="116" t="s">
+      <c r="C52" s="113" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="115" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2457,10 +2427,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A54" s="119" t="s">
+      <c r="A54" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="120" t="s">
+      <c r="B54" s="117" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2468,46 +2438,46 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="122" t="s">
+      <c r="B55" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="123" t="s">
+      <c r="C55" s="120" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A56" s="124" t="s">
+      <c r="A56" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="125" t="s">
+      <c r="B56" s="122" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="157" t="s">
+      <c r="D56" s="151" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="126" t="s">
+      <c r="A57" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="127" t="s">
+      <c r="B57" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="128" t="s">
-        <v>6</v>
+      <c r="C57" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A58" s="131" t="s">
+      <c r="A58" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="132" t="s">
+      <c r="B58" s="128" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2515,24 +2485,24 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A59" s="133" t="s">
+      <c r="A59" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="134" t="s">
+      <c r="B59" s="130" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="157" t="s">
+      <c r="D59" s="151" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A60" s="135" t="s">
+      <c r="A60" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="136" t="s">
+      <c r="B60" s="132" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2540,46 +2510,49 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="139" t="s">
-        <v>6</v>
+      <c r="B61" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="151" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="140" t="s">
+      <c r="A62" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="141" t="s">
+      <c r="B62" s="136" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="157" t="s">
+      <c r="D62" s="151" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A63" s="142" t="s">
+      <c r="A63" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="143" t="s">
+      <c r="B63" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="144" t="s">
-        <v>6</v>
+      <c r="C63" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A64" s="145" t="s">
+      <c r="A64" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="146" t="s">
+      <c r="B64" s="140" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2587,24 +2560,24 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A65" s="149" t="s">
+      <c r="A65" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="150" t="s">
+      <c r="B65" s="144" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="157" t="s">
+      <c r="D65" s="151" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A66" s="151" t="s">
+      <c r="A66" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="152" t="s">
+      <c r="B66" s="146" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2612,37 +2585,37 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A67" s="153" t="s">
+      <c r="A67" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="154" t="s">
+      <c r="B67" s="148" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="157" t="s">
+      <c r="D67" s="151" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A68" s="155" t="s">
+      <c r="A68" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="156" t="s">
+      <c r="B68" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="157" t="s">
+      <c r="D68" s="151" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="158"/>
-      <c r="B69" s="159"/>
-      <c r="C69" s="160"/>
+      <c r="A69" s="152"/>
+      <c r="B69" s="153"/>
+      <c r="C69" s="154"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
@@ -2668,37 +2641,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="130" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" style="130" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="130" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="130" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="126" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="126" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="126" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="126" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="125" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="142" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="126" t="s">
         <v>96</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBEC58A-2BFB-4C42-AA19-D8F28EDD2AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1550B844-604C-994A-87D1-CC289297CC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="154" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -353,10 +353,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -998,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1280,184 +1276,181 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1807,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1809,7 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" style="151" customWidth="1"/>
+    <col min="4" max="4" width="46" style="150" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -1829,7 +1822,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="94" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1843,7 +1836,7 @@
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="151" t="s">
+      <c r="D2" s="150" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1898,15 +1891,15 @@
       <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>6</v>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1914,10 +1907,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1925,10 +1918,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1936,10 +1929,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1947,24 +1940,24 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="151" t="s">
+      <c r="D12" s="150" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1972,10 +1965,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1983,10 +1976,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1994,10 +1987,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2005,10 +1998,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2016,21 +2009,21 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="140" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2038,10 +2031,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2049,10 +2042,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2060,10 +2053,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2071,10 +2064,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2082,32 +2075,32 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="53" t="s">
+      <c r="B25" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="54" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2115,21 +2108,21 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="140" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2137,49 +2130,49 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="61" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="151" t="s">
+      <c r="D29" s="150" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="65" t="s">
+      <c r="B30" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="140" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="66" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="151" t="s">
+      <c r="D31" s="150" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="68" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2187,10 +2180,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="70" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2198,10 +2191,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2209,10 +2202,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="74" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2220,10 +2213,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="76" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2231,10 +2224,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="78" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2242,10 +2235,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2253,10 +2246,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="82" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2264,10 +2257,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2275,10 +2268,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="86" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2286,35 +2279,35 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="89" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="91" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="151" t="s">
+      <c r="D43" s="150" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="93" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2322,49 +2315,49 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A45" s="96" t="s">
+      <c r="A45" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="98" t="s">
+      <c r="B45" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="97" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A46" s="99" t="s">
+      <c r="A46" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="100" t="s">
+      <c r="B46" s="99" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="151" t="s">
+      <c r="D46" s="150" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="151" t="s">
+      <c r="D47" s="150" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="103" t="s">
+      <c r="A48" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="104" t="s">
+      <c r="B48" s="103" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2372,10 +2365,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="105" t="s">
+      <c r="A49" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="106" t="s">
+      <c r="B49" s="105" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2383,10 +2376,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="107" t="s">
+      <c r="A50" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="107" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2394,10 +2387,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="109" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2405,21 +2398,21 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A52" s="111" t="s">
+      <c r="A52" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="112" t="s">
+      <c r="B52" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="113" t="s">
+      <c r="C52" s="112" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A53" s="114" t="s">
+      <c r="A53" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="115" t="s">
+      <c r="B53" s="114" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2427,10 +2420,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A54" s="116" t="s">
+      <c r="A54" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="117" t="s">
+      <c r="B54" s="116" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2438,35 +2431,35 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="118" t="s">
+      <c r="A55" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="119" t="s">
+      <c r="B55" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="119" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A56" s="121" t="s">
+      <c r="A56" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="122" t="s">
+      <c r="B56" s="121" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="151" t="s">
+      <c r="D56" s="150" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="123" t="s">
+      <c r="A57" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="124" t="s">
+      <c r="B57" s="123" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2474,10 +2467,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A58" s="127" t="s">
+      <c r="A58" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="128" t="s">
+      <c r="B58" s="127" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2485,24 +2478,24 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A59" s="129" t="s">
+      <c r="A59" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="130" t="s">
+      <c r="B59" s="129" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="151" t="s">
+      <c r="D59" s="150" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A60" s="131" t="s">
+      <c r="A60" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="132" t="s">
+      <c r="B60" s="131" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2510,38 +2503,38 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A61" s="133" t="s">
+      <c r="A61" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="134" t="s">
+      <c r="B61" s="133" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="151" t="s">
+      <c r="D61" s="150" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="135" t="s">
+      <c r="A62" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="136" t="s">
+      <c r="B62" s="135" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="151" t="s">
+      <c r="D62" s="150" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A63" s="137" t="s">
+      <c r="A63" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="138" t="s">
+      <c r="B63" s="137" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2549,10 +2542,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A64" s="139" t="s">
+      <c r="A64" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="140" t="s">
+      <c r="B64" s="139" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2560,24 +2553,24 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A65" s="143" t="s">
+      <c r="A65" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="144" t="s">
+      <c r="B65" s="143" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="151" t="s">
+      <c r="D65" s="150" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A66" s="145" t="s">
+      <c r="A66" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="146" t="s">
+      <c r="B66" s="145" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2585,37 +2578,37 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A67" s="147" t="s">
+      <c r="A67" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="148" t="s">
+      <c r="B67" s="147" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="151" t="s">
+      <c r="D67" s="150" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A68" s="149" t="s">
+      <c r="A68" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="150" t="s">
+      <c r="B68" s="149" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="151" t="s">
+      <c r="D68" s="150" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="152"/>
-      <c r="B69" s="153"/>
-      <c r="C69" s="154"/>
+      <c r="A69" s="151"/>
+      <c r="B69" s="152"/>
+      <c r="C69" s="153"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
@@ -2641,37 +2634,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="126" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" style="126" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="126" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="126" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="125" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="125" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="124" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="141" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>96</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1550B844-604C-994A-87D1-CC289297CC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDF0EA8-1689-7A4D-8B8C-F115552D623E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="101">
   <si>
     <t>Symbol</t>
   </si>
@@ -336,13 +336,19 @@
   </si>
   <si>
     <t>высоковато от ЕМА26</t>
+  </si>
+  <si>
+    <t>TP на 80% бы помогло</t>
+  </si>
+  <si>
+    <t>последние 2 недельные котировки снижались</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="154" x14ac:knownFonts="1">
+  <fonts count="152" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -712,18 +718,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
@@ -849,10 +843,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
@@ -864,6 +854,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="15"/>
@@ -994,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1267,191 +1265,188 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1798,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1804,7 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" style="150" customWidth="1"/>
+    <col min="4" max="4" width="46" style="146" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -1822,7 +1817,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="91" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1836,7 +1831,7 @@
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="146" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1949,7 +1944,7 @@
       <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="150" t="s">
+      <c r="D12" s="146" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2081,26 +2076,26 @@
       <c r="B24" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="53" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2108,21 +2103,21 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="140" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2130,49 +2125,49 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="150" t="s">
+      <c r="D29" s="146" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>6</v>
+      <c r="B30" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="140" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="64" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="150" t="s">
+      <c r="D31" s="146" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2180,10 +2175,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="68" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2191,10 +2186,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2202,10 +2197,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="72" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2213,10 +2208,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="74" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2224,10 +2219,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="76" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2235,10 +2230,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2246,10 +2241,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="80" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2257,10 +2252,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2268,10 +2263,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="84" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2279,35 +2274,38 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="89" t="s">
-        <v>6</v>
+      <c r="C42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="152" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A43" s="90" t="s">
+      <c r="A43" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="150" t="s">
+      <c r="D43" s="146" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2315,49 +2313,52 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="97" t="s">
-        <v>6</v>
+      <c r="B45" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="146" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A46" s="98" t="s">
+      <c r="A46" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="99" t="s">
+      <c r="B46" s="95" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="150" t="s">
+      <c r="D46" s="146" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A47" s="100" t="s">
+      <c r="A47" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="101" t="s">
+      <c r="B47" s="97" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="150" t="s">
+      <c r="D47" s="146" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="103" t="s">
+      <c r="B48" s="99" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2365,10 +2366,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="101" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2376,10 +2377,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2387,10 +2388,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="105" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2398,21 +2399,21 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="111" t="s">
+      <c r="B52" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="112" t="s">
+      <c r="C52" s="108" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A53" s="113" t="s">
+      <c r="A53" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="114" t="s">
+      <c r="B53" s="110" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2420,10 +2421,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A54" s="115" t="s">
+      <c r="A54" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="116" t="s">
+      <c r="B54" s="112" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2431,35 +2432,35 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="117" t="s">
+      <c r="A55" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="118" t="s">
+      <c r="B55" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="119" t="s">
+      <c r="C55" s="115" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A56" s="120" t="s">
+      <c r="A56" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="121" t="s">
+      <c r="B56" s="117" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="150" t="s">
+      <c r="D56" s="146" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="122" t="s">
+      <c r="A57" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="123" t="s">
+      <c r="B57" s="119" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2467,10 +2468,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A58" s="126" t="s">
+      <c r="A58" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="123" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2478,24 +2479,24 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A59" s="128" t="s">
+      <c r="A59" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="129" t="s">
+      <c r="B59" s="125" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="150" t="s">
+      <c r="D59" s="146" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A60" s="130" t="s">
+      <c r="A60" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="131" t="s">
+      <c r="B60" s="127" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2503,38 +2504,38 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A61" s="132" t="s">
+      <c r="A61" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="133" t="s">
+      <c r="B61" s="129" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="150" t="s">
+      <c r="D61" s="146" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="134" t="s">
+      <c r="A62" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="135" t="s">
+      <c r="B62" s="131" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="150" t="s">
+      <c r="D62" s="146" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A63" s="136" t="s">
+      <c r="A63" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="137" t="s">
+      <c r="B63" s="133" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2542,10 +2543,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A64" s="138" t="s">
+      <c r="A64" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="139" t="s">
+      <c r="B64" s="135" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2553,24 +2554,24 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A65" s="142" t="s">
+      <c r="A65" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="143" t="s">
+      <c r="B65" s="139" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="150" t="s">
+      <c r="D65" s="146" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A66" s="144" t="s">
+      <c r="A66" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="145" t="s">
+      <c r="B66" s="141" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2578,37 +2579,48 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A67" s="146" t="s">
+      <c r="A67" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="147" t="s">
+      <c r="B67" s="143" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="150" t="s">
+      <c r="D67" s="146" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A68" s="148" t="s">
+      <c r="A68" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="149" t="s">
+      <c r="B68" s="145" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="150" t="s">
+      <c r="D68" s="146" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="151"/>
-      <c r="B69" s="152"/>
-      <c r="C69" s="153"/>
+      <c r="A69" s="147"/>
+      <c r="B69" s="148"/>
+      <c r="C69" s="149"/>
+    </row>
+    <row r="70" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="150" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
@@ -2634,37 +2646,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="125" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" style="125" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="125" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="125" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="121" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="121" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="121" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="121" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="120" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="137" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="121" t="s">
         <v>96</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDF0EA8-1689-7A4D-8B8C-F115552D623E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F6D27D-C28D-1948-8444-37E9017850FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
   <si>
     <t>Symbol</t>
   </si>
@@ -342,13 +342,16 @@
   </si>
   <si>
     <t>последние 2 недельные котировки снижались</t>
+  </si>
+  <si>
+    <t>флэт на первом экране</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="152" x14ac:knownFonts="1">
+  <fonts count="151" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -359,10 +362,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -992,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1262,174 +1261,174 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1442,10 +1441,7 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="91" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1796,7 +1792,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1800,7 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="46" style="146" customWidth="1"/>
+    <col min="4" max="4" width="46" style="145" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
@@ -1817,7 +1813,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="90" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1831,7 +1827,7 @@
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="146" t="s">
+      <c r="D2" s="145" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1944,7 +1940,7 @@
       <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="145" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2109,15 +2105,18 @@
       <c r="B27" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="56" t="s">
-        <v>6</v>
+      <c r="C27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="145" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2125,24 +2124,24 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="146" t="s">
+      <c r="D29" s="145" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="61" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2150,24 +2149,24 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="140" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="63" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="146" t="s">
+      <c r="D31" s="145" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2175,10 +2174,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="67" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2186,10 +2185,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2197,10 +2196,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="71" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2208,10 +2207,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="73" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2219,10 +2218,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="75" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2230,10 +2229,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="77" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2241,10 +2240,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="79" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2252,10 +2251,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="82" t="s">
+      <c r="B40" s="81" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2263,10 +2262,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="83" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2274,38 +2273,38 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="85" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="152" t="s">
+      <c r="D42" s="151" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="87" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="146" t="s">
+      <c r="D43" s="145" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="89" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2313,52 +2312,52 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="92" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="146" t="s">
+      <c r="D45" s="145" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="94" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="146" t="s">
+      <c r="D46" s="145" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A47" s="96" t="s">
+      <c r="A47" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="96" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="146" t="s">
+      <c r="D47" s="145" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="98" t="s">
+      <c r="A48" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="99" t="s">
+      <c r="B48" s="98" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2366,10 +2365,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="100" t="s">
+      <c r="A49" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="101" t="s">
+      <c r="B49" s="100" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2377,10 +2376,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="103" t="s">
+      <c r="B50" s="102" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2388,10 +2387,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="105" t="s">
+      <c r="B51" s="104" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2399,21 +2398,21 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="108" t="s">
+      <c r="C52" s="107" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A53" s="109" t="s">
+      <c r="A53" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="109" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2421,10 +2420,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A54" s="111" t="s">
+      <c r="A54" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="112" t="s">
+      <c r="B54" s="111" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2432,35 +2431,35 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="113" t="s">
+      <c r="A55" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="115" t="s">
+      <c r="C55" s="114" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A56" s="116" t="s">
+      <c r="A56" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="117" t="s">
+      <c r="B56" s="116" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="146" t="s">
+      <c r="D56" s="145" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="118" t="s">
+      <c r="A57" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="119" t="s">
+      <c r="B57" s="118" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2468,10 +2467,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A58" s="122" t="s">
+      <c r="A58" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="123" t="s">
+      <c r="B58" s="122" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2479,24 +2478,24 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A59" s="124" t="s">
+      <c r="A59" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="124" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="146" t="s">
+      <c r="D59" s="145" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A60" s="126" t="s">
+      <c r="A60" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="127" t="s">
+      <c r="B60" s="126" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2504,38 +2503,38 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A61" s="128" t="s">
+      <c r="A61" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="128" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="146" t="s">
+      <c r="D61" s="145" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="130" t="s">
+      <c r="A62" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="131" t="s">
+      <c r="B62" s="130" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="146" t="s">
+      <c r="D62" s="145" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="A63" s="132" t="s">
+      <c r="A63" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="133" t="s">
+      <c r="B63" s="132" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2543,10 +2542,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A64" s="134" t="s">
+      <c r="A64" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="135" t="s">
+      <c r="B64" s="134" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2554,24 +2553,24 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A65" s="138" t="s">
+      <c r="A65" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="139" t="s">
+      <c r="B65" s="138" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="146" t="s">
+      <c r="D65" s="145" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="100" x14ac:dyDescent="0.25">
-      <c r="A66" s="140" t="s">
+      <c r="A66" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="141" t="s">
+      <c r="B66" s="140" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2579,43 +2578,43 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="160" x14ac:dyDescent="0.25">
-      <c r="A67" s="142" t="s">
+      <c r="A67" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="143" t="s">
+      <c r="B67" s="142" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="146" t="s">
+      <c r="D67" s="145" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A68" s="144" t="s">
+      <c r="A68" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="145" t="s">
+      <c r="B68" s="144" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="146" t="s">
+      <c r="D68" s="145" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="147"/>
-      <c r="B69" s="148"/>
-      <c r="C69" s="149"/>
+      <c r="A69" s="146"/>
+      <c r="B69" s="147"/>
+      <c r="C69" s="148"/>
     </row>
     <row r="70" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="150" t="s">
+      <c r="A70" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="151" t="s">
+      <c r="B70" s="150" t="s">
         <v>26</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2646,37 +2645,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="121" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" style="121" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="121" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="121" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="120" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="120" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="120" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="120" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="119" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="136" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="120" t="s">
         <v>96</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/volodymyr/Library/Mobile Documents/com~apple~CloudDocs/PI/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F6D27D-C28D-1948-8444-37E9017850FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB252080-EC83-074C-8BD1-0A8083FF4930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="108">
   <si>
     <t>Symbol</t>
   </si>
@@ -345,13 +345,31 @@
   </si>
   <si>
     <t>флэт на первом экране</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>IONS</t>
+  </si>
+  <si>
+    <t>EXTN</t>
+  </si>
+  <si>
+    <t>CDEV</t>
+  </si>
+  <si>
+    <t>FLT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="151" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -853,6 +871,342 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="15"/>
@@ -991,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1443,6 +1797,258 @@
     </xf>
     <xf numFmtId="9" fontId="91" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1789,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2620,6 +3226,182 @@
       <c r="C70" s="2" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="71" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A71" s="152" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A72" s="155" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" s="156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A73" s="158" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A74" s="161" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A75" s="164" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A76" s="167" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="170"/>
+      <c r="B77" s="171"/>
+      <c r="C77" s="172"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="173"/>
+      <c r="B78" s="174"/>
+      <c r="C78" s="175"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="176"/>
+      <c r="B79" s="177"/>
+      <c r="C79" s="178"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="179"/>
+      <c r="B80" s="180"/>
+      <c r="C80" s="181"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="182"/>
+      <c r="B81" s="183"/>
+      <c r="C81" s="184"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="185"/>
+      <c r="B82" s="186"/>
+      <c r="C82" s="187"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="188"/>
+      <c r="B83" s="189"/>
+      <c r="C83" s="190"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="191"/>
+      <c r="B84" s="192"/>
+      <c r="C84" s="193"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="194"/>
+      <c r="B85" s="195"/>
+      <c r="C85" s="196"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="197"/>
+      <c r="B86" s="198"/>
+      <c r="C86" s="199"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="200"/>
+      <c r="B87" s="201"/>
+      <c r="C87" s="202"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="203"/>
+      <c r="B88" s="204"/>
+      <c r="C88" s="205"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="206"/>
+      <c r="B89" s="207"/>
+      <c r="C89" s="208"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="209"/>
+      <c r="B90" s="210"/>
+      <c r="C90" s="211"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="212"/>
+      <c r="B91" s="213"/>
+      <c r="C91" s="214"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="215"/>
+      <c r="B92" s="216"/>
+      <c r="C92" s="217"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="218"/>
+      <c r="B93" s="219"/>
+      <c r="C93" s="220"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="221"/>
+      <c r="B94" s="222"/>
+      <c r="C94" s="223"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="224"/>
+      <c r="B95" s="225"/>
+      <c r="C95" s="226"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="227"/>
+      <c r="B96" s="228"/>
+      <c r="C96" s="229"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="230"/>
+      <c r="B97" s="231"/>
+      <c r="C97" s="232"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="233"/>
+      <c r="B98" s="234"/>
+      <c r="C98" s="235"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
